--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Reclutamiento de Postulantes</t>
   </si>
   <si>
-    <t>Selección de Postulantes</t>
-  </si>
-  <si>
-    <t>Contratación de Personal</t>
-  </si>
-  <si>
     <t>Seguimiento de Personal</t>
   </si>
   <si>
@@ -93,30 +87,15 @@
     <t>Contabilidad y Presupuesto</t>
   </si>
   <si>
-    <t>Elaboración del Flujo de Caja</t>
-  </si>
-  <si>
-    <t>Elaboración del Balance General</t>
-  </si>
-  <si>
     <t>En QA</t>
   </si>
   <si>
     <t>Por Enviar</t>
   </si>
   <si>
-    <t>Elaboración de Informe Financiero para Proyectos y Donaciones</t>
-  </si>
-  <si>
-    <t>Despido/Renuncia de Personal</t>
-  </si>
-  <si>
     <t>Gestión de Educación Rural</t>
   </si>
   <si>
-    <t>Planificación de Actividades</t>
-  </si>
-  <si>
     <t>ARTEFACTOS</t>
   </si>
   <si>
@@ -195,19 +174,46 @@
     <t>ELABORACIÓN</t>
   </si>
   <si>
-    <t>Propuesta de Nuevo Programa Rural</t>
-  </si>
-  <si>
-    <t>Evaluación de Programa Rural</t>
-  </si>
-  <si>
-    <t>Acompañamiento de Programas Rural</t>
-  </si>
-  <si>
     <t>Pagos y Reposición de Caja Chica</t>
   </si>
   <si>
     <t>Evaluación y Entrega de Fondos</t>
+  </si>
+  <si>
+    <t>Auditoría Interna</t>
+  </si>
+  <si>
+    <t>Codificación de las Cuentas</t>
+  </si>
+  <si>
+    <t>Elaboración de Informe Financiero</t>
+  </si>
+  <si>
+    <t>Creación de Programa Educativo Rural</t>
+  </si>
+  <si>
+    <t>Planificación de los Programas Educativos Rurales</t>
+  </si>
+  <si>
+    <t>Acompañamiento a los Programas Educativos Rurales</t>
+  </si>
+  <si>
+    <t>Seguimiento  a los Programas Educativos Rurales</t>
+  </si>
+  <si>
+    <t>Solicitud de Personal</t>
+  </si>
+  <si>
+    <t>Evaluación de Postulantes</t>
+  </si>
+  <si>
+    <t>Contratación e Inducción</t>
+  </si>
+  <si>
+    <t>Despido de Personal</t>
+  </si>
+  <si>
+    <t>Capacitación de Personal</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M46"/>
+  <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,13 +1104,13 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H3" s="30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" s="31">
-        <f>AVERAGE(J4:J44)</f>
+        <f>AVERAGE(J4:J46)</f>
         <v>0.42424242424242425</v>
       </c>
     </row>
@@ -1308,7 +1314,7 @@
         <v>2.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1359,11 +1365,11 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <f>AVERAGE(H18:H24)</f>
+        <f>AVERAGE(H18:H26)</f>
         <v>0.75</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2">
         <v>0.5</v>
@@ -1385,7 +1391,7 @@
         <v>0.75</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2">
         <v>0.5</v>
@@ -1406,7 +1412,7 @@
         <v>0.75</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2">
         <v>0.5</v>
@@ -1417,7 +1423,7 @@
         <v>3.3</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1427,7 +1433,7 @@
         <v>0.75</v>
       </c>
       <c r="I20" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
         <v>0.5</v>
@@ -1438,7 +1444,7 @@
         <v>3.4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1448,7 +1454,7 @@
         <v>0.75</v>
       </c>
       <c r="I21" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2">
         <v>0.5</v>
@@ -1459,7 +1465,7 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1469,7 +1475,7 @@
         <v>0.75</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2">
         <v>0.5</v>
@@ -1480,7 +1486,7 @@
         <v>3.6</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1490,7 +1496,7 @@
         <v>0.75</v>
       </c>
       <c r="I23" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2">
         <v>0.5</v>
@@ -1501,7 +1507,7 @@
         <v>3.7</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1510,90 +1516,82 @@
       <c r="H24" s="15">
         <v>0.75</v>
       </c>
-      <c r="I24" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="83"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="83"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2">
         <v>0.5</v>
       </c>
-      <c r="M24" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20">
-        <f>AVERAGE(H27:H33)</f>
+      <c r="M26" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20">
+        <f>AVERAGE(H29:H35)</f>
         <v>0.75</v>
       </c>
-      <c r="I26" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>28</v>
+      <c r="I28" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -1603,7 +1601,7 @@
         <v>0.75</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -1611,10 +1609,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -1624,7 +1622,7 @@
         <v>0.75</v>
       </c>
       <c r="I30" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -1632,10 +1630,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -1645,7 +1643,7 @@
         <v>0.75</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -1653,10 +1651,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -1665,15 +1663,19 @@
       <c r="H32" s="17">
         <v>0.75</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -1683,84 +1685,78 @@
         <v>0.75</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="18">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27">
+        <f>AVERAGE(H38:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27">
-        <f>AVERAGE(H36:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29">
-        <v>0</v>
-      </c>
-      <c r="I36" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
-        <v>5.2</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29">
-        <v>0</v>
-      </c>
-      <c r="I37" s="83" t="s">
-        <v>28</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -1769,10 +1765,10 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="28">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -1782,97 +1778,99 @@
         <v>0</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="1"/>
-      <c r="M38" s="25">
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="28">
+        <v>5.3</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29">
+        <v>0</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="M40" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35">
-        <f>AVERAGE(H41:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33">
-        <v>0</v>
-      </c>
-      <c r="I41" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33">
-        <v>0</v>
-      </c>
-      <c r="I42" s="83" t="s">
-        <v>28</v>
+      <c r="B42" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35">
+        <f>AVERAGE(H43:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="32">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -1881,15 +1879,19 @@
       <c r="H43" s="33">
         <v>0</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="32">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -1899,36 +1901,74 @@
         <v>0</v>
       </c>
       <c r="I44" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="M44" s="34">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33">
+        <v>0</v>
+      </c>
+      <c r="I45" s="83"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33">
+        <v>0</v>
+      </c>
+      <c r="I46" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="3">
-        <f>AVERAGE(H40:H44,H35:H38,H26:H33,H17:H24,H9:H15,H4:H7)</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="M46" s="96">
-        <f>SUM(M4:M45)</f>
-        <v>36</v>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="3">
+        <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
+        <v>0.64473684210526316</v>
+      </c>
+      <c r="M48" s="96">
+        <f>SUM(M4:M47)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1958,19 +1998,19 @@
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="41">
         <v>0.5</v>
@@ -1987,7 +2027,7 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="47">
         <v>0.66</v>
@@ -2004,7 +2044,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="50">
         <v>0</v>
@@ -2021,7 +2061,7 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" s="50">
         <v>0</v>
@@ -2038,7 +2078,7 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="46" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8" s="50">
         <v>0</v>
@@ -2055,7 +2095,7 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" s="50">
         <v>0</v>
@@ -2072,7 +2112,7 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="50">
         <v>0</v>
@@ -2089,7 +2129,7 @@
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" s="50">
         <v>0</v>
@@ -2104,7 +2144,7 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="50">
         <v>0</v>
@@ -2119,7 +2159,7 @@
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="50">
         <v>0</v>
@@ -2134,7 +2174,7 @@
     </row>
     <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="46" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" s="50">
         <v>0</v>
@@ -2149,7 +2189,7 @@
     </row>
     <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="53" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55">
@@ -2171,22 +2211,22 @@
     </row>
     <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="61" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F17" s="63"/>
       <c r="H17" s="52" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D18" s="65">
         <v>1</v>
@@ -2199,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I18" s="92">
         <f>F15</f>
@@ -2208,7 +2248,7 @@
     </row>
     <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="64" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D19" s="65">
         <v>1</v>
@@ -2221,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="93" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I19" s="94">
         <f>AVERAGE(D18:D23)</f>
@@ -2230,7 +2270,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="64" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D20" s="65">
         <v>1</v>
@@ -2245,7 +2285,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="64" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" s="65">
         <v>1</v>
@@ -2260,7 +2300,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="64" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D22" s="65">
         <v>1</v>
@@ -2275,7 +2315,7 @@
     </row>
     <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D23" s="69">
         <v>1</v>
@@ -2290,7 +2330,7 @@
     </row>
     <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="72" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="74">
@@ -2310,7 +2350,7 @@
     </row>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="77" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="79">

--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="1" r:id="rId1"/>
     <sheet name="Proyecto" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Procesos - Proyecto Anterior" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -214,6 +214,111 @@
   </si>
   <si>
     <t>Capacitación de Personal</t>
+  </si>
+  <si>
+    <t>Inventariado de Talleres de Educación Técnica</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE ABASTECIMIENTO</t>
+  </si>
+  <si>
+    <t>Seguimiento Presupuestal</t>
+  </si>
+  <si>
+    <t>Planificación del Presupuesto Institucional Anual</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y PRESUPUESTOS</t>
+  </si>
+  <si>
+    <t>Ejecución de Retiros de Pastoral y Educación en Valores</t>
+  </si>
+  <si>
+    <t>Ejecución de Talleres de Pastoral y Educación en Valores</t>
+  </si>
+  <si>
+    <t>Acompañamiento de Pastoral y Educación en Valores</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE ORIENTACIÓN PASTORAL</t>
+  </si>
+  <si>
+    <t>Actualización de currículas de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Capacitaciones de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Acompañamiento de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Capacitaciones del Departamento de Formación</t>
+  </si>
+  <si>
+    <t>Acompañamiento del Departamento de Formación</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE ASEGURAMIENTO DE LA CALIDAD EDUCATIVA</t>
+  </si>
+  <si>
+    <t>Auditoría del Departamento de Proyectos</t>
+  </si>
+  <si>
+    <t>Evaluar Proyecto</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Ejecución de Proyectos del Departamento de Proyectos</t>
+  </si>
+  <si>
+    <t>Participación en concurso del Departamento de Proyectos</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>Canalización de Donaciones del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Elaboración de comunicación interna del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Elaboración de Nota periodística del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Elaboración de campaña periodística del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Elaboración de campaña publicitaria del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE IMAGEN INSTITUCIONAL Y DONACIONES</t>
+  </si>
+  <si>
+    <t>Planificación de Pastoral y Educación en Valores</t>
+  </si>
+  <si>
+    <t>Planificación del Departamento de Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Planificación del Departamento de Proyectos</t>
+  </si>
+  <si>
+    <t>Planificación de Actividades de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Planificación del Departamento de Formación</t>
+  </si>
+  <si>
+    <t>Elaboración del Plan Operativo Institucional</t>
+  </si>
+  <si>
+    <t>PLANIFICACIÓN</t>
   </si>
 </sst>
 </file>
@@ -290,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +504,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -591,7 +732,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -783,6 +924,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1088,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1347,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="97">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1557,7 +1710,7 @@
         <v>0.5</v>
       </c>
       <c r="M26" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1829,7 +1982,7 @@
       </c>
       <c r="K40" s="1"/>
       <c r="M40" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -1945,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -1963,7 +2116,7 @@
       </c>
       <c r="M48" s="96">
         <f>SUM(M4:M47)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2369,12 +2522,381 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="109">
+        <v>1</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="106">
+        <v>3</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107">
+        <v>3.1</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="107"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="107"/>
+      <c r="C22" s="107">
+        <v>3.2</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="107"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="107"/>
+      <c r="C24" s="107">
+        <v>3.3</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="34">
+        <v>4</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="104"/>
+      <c r="C27" s="104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="104"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="104"/>
+      <c r="C28" s="104">
+        <v>4.2</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="104"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104">
+        <v>4.3</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="104"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104">
+        <v>4.5</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="104"/>
+      <c r="F31" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="96">
+        <v>5</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="102"/>
+      <c r="C34" s="102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="102"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="102"/>
+      <c r="C35" s="102">
+        <v>5.2</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="102"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="102"/>
+      <c r="C36" s="102">
+        <v>5.3</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="102"/>
+      <c r="F36" s="96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>6</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="101"/>
+      <c r="C39" s="101">
+        <v>6.1</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="101"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="101"/>
+      <c r="C40" s="101">
+        <v>6.2</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="99">
+        <v>7</v>
+      </c>
+      <c r="C42" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <f xml:space="preserve"> SUM(F11:F44)</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="1" r:id="rId1"/>
@@ -921,9 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
@@ -936,6 +933,9 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1519,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13">
         <f>AVERAGE(H18:H26)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="82" t="s">
         <v>24</v>
@@ -1541,7 +1541,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="83" t="s">
         <v>24</v>
@@ -1562,7 +1562,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="83" t="s">
         <v>24</v>
@@ -1583,7 +1583,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="83" t="s">
         <v>24</v>
@@ -1604,7 +1604,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="83" t="s">
         <v>24</v>
@@ -1625,7 +1625,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="83" t="s">
         <v>24</v>
@@ -1646,7 +1646,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I23" s="83" t="s">
         <v>24</v>
@@ -1667,7 +1667,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="83"/>
       <c r="J24" s="2"/>
@@ -1684,7 +1684,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="83"/>
       <c r="J25" s="2"/>
@@ -1701,7 +1701,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="83" t="s">
         <v>24</v>
@@ -1729,7 +1729,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="20">
         <f>AVERAGE(H29:H35)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I28" s="82" t="s">
         <v>24</v>
@@ -1751,7 +1751,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I29" s="83" t="s">
         <v>24</v>
@@ -1772,7 +1772,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I30" s="83" t="s">
         <v>24</v>
@@ -1793,7 +1793,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I31" s="83" t="s">
         <v>24</v>
@@ -1814,7 +1814,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I32" s="83" t="s">
         <v>24</v>
@@ -1835,7 +1835,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I33" s="83" t="s">
         <v>24</v>
@@ -1856,7 +1856,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I34" s="83"/>
       <c r="J34" s="2"/>
@@ -1873,7 +1873,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I35" s="83" t="s">
         <v>24</v>
@@ -1906,7 +1906,7 @@
       <c r="G37" s="26"/>
       <c r="H37" s="27">
         <f>AVERAGE(H38:H40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="82" t="s">
         <v>24</v>
@@ -1928,7 +1928,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="83" t="s">
         <v>24</v>
@@ -1950,7 +1950,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="83" t="s">
         <v>24</v>
@@ -1972,7 +1972,7 @@
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="83" t="s">
         <v>24</v>
@@ -2008,7 +2008,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="35">
         <f>AVERAGE(H43:H46)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I42" s="82" t="s">
         <v>24</v>
@@ -2030,7 +2030,7 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I43" s="83" t="s">
         <v>24</v>
@@ -2051,7 +2051,7 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I44" s="83" t="s">
         <v>24</v>
@@ -2072,7 +2072,7 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I45" s="83"/>
       <c r="J45" s="2"/>
@@ -2089,7 +2089,7 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I46" s="83" t="s">
         <v>24</v>
@@ -2102,17 +2102,17 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
-        <v>0.64473684210526316</v>
+        <v>0.83552631578947367</v>
       </c>
       <c r="M48" s="96">
         <f>SUM(M4:M47)</f>
@@ -2183,14 +2183,14 @@
         <v>30</v>
       </c>
       <c r="D5" s="47">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="48">
         <v>5</v>
       </c>
       <c r="F5" s="49">
         <f t="shared" ref="F5:F23" si="0">D5*E5</f>
-        <v>3.3000000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="87"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F15" s="56">
         <f>SUM(F4:F14)/E15</f>
-        <v>0.17200000000000004</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="H15" s="90"/>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="I18" s="92">
         <f>F15</f>
-        <v>0.17200000000000004</v>
+        <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2511,8 +2511,8 @@
         <v>49</v>
       </c>
       <c r="F26" s="80">
-        <f>SUM(SUM(F4:F14),SUM(F18:F24))/E26</f>
-        <v>0.59795918367346945</v>
+        <f>SUM(SUM(F4:F14),SUM(F18:F23))/E26</f>
+        <v>0.59591836734693882</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F45"/>
+  <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,360 +2538,360 @@
     <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="108">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="109">
-        <v>1</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="F9" s="108">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="109">
-        <v>6</v>
-      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>2.1</v>
-      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <v>2.4</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6">
+      <c r="B18" s="105">
+        <v>3</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106">
+        <v>3.1</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106">
+        <v>3.2</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="106"/>
+      <c r="C22" s="106">
+        <v>3.3</v>
+      </c>
+      <c r="D22" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="34">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="103"/>
+      <c r="C25" s="103">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="103"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="103"/>
+      <c r="C26" s="103">
+        <v>4.2</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="103"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="103"/>
+      <c r="C27" s="103">
+        <v>4.3</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="103"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="103"/>
+      <c r="C28" s="103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="103"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="103"/>
+      <c r="C29" s="103">
+        <v>4.5</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="103"/>
+      <c r="F29" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="106">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="96">
+        <v>5</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="101"/>
+      <c r="C32" s="101">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="101"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101">
+        <v>5.2</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="101"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="96">
         <v>3</v>
       </c>
-      <c r="C20" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107">
-        <v>3.1</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="107"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="107"/>
-      <c r="C22" s="107">
-        <v>3.2</v>
-      </c>
-      <c r="D22" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="107"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
-      <c r="C24" s="107">
-        <v>3.3</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <v>4</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="104">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="104"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="104">
-        <v>4.2</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="104"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="104">
-        <v>4.3</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="104"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
-      <c r="C30" s="104">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="104"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104">
-        <v>4.5</v>
-      </c>
-      <c r="D31" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="96">
-        <v>5</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="102"/>
-      <c r="C34" s="102">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="102"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="102"/>
-      <c r="C35" s="102">
-        <v>5.2</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="102"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="102"/>
-      <c r="C36" s="102">
-        <v>5.3</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="96">
-        <v>3</v>
-      </c>
+      <c r="B36" s="18">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="100"/>
+      <c r="C37" s="100">
+        <v>6.1</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="100"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
-        <v>6</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="101"/>
-      <c r="C39" s="101">
-        <v>6.1</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="101"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100">
+        <v>6.2</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="100"/>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="101"/>
-      <c r="C40" s="101">
-        <v>6.2</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="99">
+      <c r="B40" s="98">
         <v>7</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C40" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="98">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="1">
-        <f xml:space="preserve"> SUM(F11:F44)</f>
+      <c r="F43" s="1">
+        <f xml:space="preserve"> SUM(F9:F42)</f>
         <v>26</v>
       </c>
     </row>

--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>PLANIFICACIÓN</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -935,6 +941,9 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1241,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -2522,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F43"/>
+  <dimension ref="B3:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,9 +2545,10 @@
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="108">
         <v>1</v>
       </c>
@@ -2547,8 +2557,11 @@
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -2557,8 +2570,11 @@
         <v>99</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1.2</v>
@@ -2567,8 +2583,11 @@
         <v>98</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1.3</v>
@@ -2577,8 +2596,11 @@
         <v>97</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>1.4</v>
@@ -2587,8 +2609,11 @@
         <v>96</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1.5</v>
@@ -2597,8 +2622,11 @@
         <v>95</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1.6</v>
@@ -2610,8 +2638,11 @@
       <c r="F9" s="108">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -2620,8 +2651,11 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9">
         <v>2.1</v>
@@ -2630,8 +2664,11 @@
         <v>92</v>
       </c>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9">
         <v>2.2000000000000002</v>
@@ -2640,8 +2677,11 @@
         <v>91</v>
       </c>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -2650,8 +2690,11 @@
       <c r="E14" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
         <v>2.2999999999999998</v>
@@ -2660,8 +2703,11 @@
         <v>88</v>
       </c>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2.4</v>
@@ -2673,8 +2719,11 @@
       <c r="F16" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="105">
         <v>3</v>
       </c>
@@ -2683,8 +2732,11 @@
       </c>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="106">
         <v>3.1</v>
@@ -2693,8 +2745,11 @@
         <v>85</v>
       </c>
       <c r="E19" s="106"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="106">
         <v>3.2</v>
@@ -2703,8 +2758,11 @@
         <v>84</v>
       </c>
       <c r="E20" s="106"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
@@ -2713,8 +2771,11 @@
       <c r="E21" s="106" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="106">
         <v>3.3</v>
@@ -2726,8 +2787,11 @@
       <c r="F22" s="105">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>4</v>
       </c>
@@ -2736,8 +2800,11 @@
       </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="103">
         <v>4.0999999999999996</v>
@@ -2746,8 +2813,11 @@
         <v>79</v>
       </c>
       <c r="E25" s="103"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="103">
         <v>4.2</v>
@@ -2756,8 +2826,11 @@
         <v>78</v>
       </c>
       <c r="E26" s="103"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="103">
         <v>4.3</v>
@@ -2766,8 +2839,11 @@
         <v>77</v>
       </c>
       <c r="E27" s="103"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="103"/>
       <c r="C28" s="103">
         <v>4.4000000000000004</v>
@@ -2776,8 +2852,11 @@
         <v>76</v>
       </c>
       <c r="E28" s="103"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
       <c r="C29" s="103">
         <v>4.5</v>
@@ -2789,8 +2868,11 @@
       <c r="F29" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="96">
         <v>5</v>
       </c>
@@ -2800,7 +2882,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="101">
         <v>5.0999999999999996</v>

--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,6 +2881,9 @@
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
+      <c r="H31" s="111" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
@@ -2891,8 +2894,11 @@
         <v>73</v>
       </c>
       <c r="E32" s="101"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="101"/>
       <c r="C33" s="101">
         <v>5.2</v>
@@ -2901,8 +2907,11 @@
         <v>72</v>
       </c>
       <c r="E33" s="101"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="101">
         <v>5.3</v>
@@ -2914,8 +2923,11 @@
       <c r="F34" s="96">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>6</v>
       </c>
@@ -2924,8 +2936,11 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="100"/>
       <c r="C37" s="100">
         <v>6.1</v>
@@ -2934,8 +2949,11 @@
         <v>69</v>
       </c>
       <c r="E37" s="100"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="100"/>
       <c r="C38" s="100">
         <v>6.2</v>
@@ -2947,8 +2965,11 @@
       <c r="F38" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="98">
         <v>7</v>
       </c>
@@ -2957,8 +2978,11 @@
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="28">
         <v>7.1</v>
@@ -2970,8 +2994,11 @@
       <c r="F41" s="98">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F43" s="1">
         <f xml:space="preserve"> SUM(F9:F42)</f>
         <v>26</v>

--- a/trunk/Avance.xlsx
+++ b/trunk/Avance.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
-    <sheet name="Procesos" sheetId="1" r:id="rId1"/>
-    <sheet name="Proyecto" sheetId="2" r:id="rId2"/>
-    <sheet name="Procesos - Proyecto Anterior" sheetId="4" r:id="rId3"/>
+    <sheet name="Resumen de Procesos" sheetId="5" r:id="rId1"/>
+    <sheet name="Procesos" sheetId="1" r:id="rId2"/>
+    <sheet name="Proyecto" sheetId="2" r:id="rId3"/>
+    <sheet name="Procesos - Proyecto Anterior" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -324,7 +325,58 @@
     <t>X</t>
   </si>
   <si>
-    <t>?</t>
+    <t>En Bizagi</t>
+  </si>
+  <si>
+    <t>Modificar (Si/No)</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Total Procesos</t>
+  </si>
+  <si>
+    <t>Total Diagramas</t>
+  </si>
+  <si>
+    <t>Total Diagramas Modelados</t>
+  </si>
+  <si>
+    <t>Total Diagramas Modelados en 75%</t>
+  </si>
+  <si>
+    <t>Total Diagramas Modelados en 50%</t>
+  </si>
+  <si>
+    <t>Total Diagramas Modelados en 25%</t>
+  </si>
+  <si>
+    <t>Total Diagramas Modelados en 0%</t>
+  </si>
+  <si>
+    <t>Total Diagramas en Bizagi</t>
+  </si>
+  <si>
+    <t>Total Diagramas sin Bizagi</t>
+  </si>
+  <si>
+    <t>Total Diagramas a modificar</t>
+  </si>
+  <si>
+    <t>Total Diagramas sin modificar</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>PROYECTO ANTERIOR</t>
   </si>
 </sst>
 </file>
@@ -401,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +598,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -732,13 +796,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -939,10 +1018,62 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1379,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="129">
+        <f>Procesos!M48+6</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="130">
+        <f>Procesos!M48</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="130">
+        <f>COUNTIF(Procesos!H4:H46,"100%")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="130">
+        <f>COUNTIF(Procesos!H4:H46,"75%")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="130">
+        <f>COUNTIF(Procesos!H4:H46,"50%")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="130">
+        <f>COUNTIF(Procesos!H4:H46,"250%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="130">
+        <f>COUNTIF(Procesos!H4:H46,"0%")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="130">
+        <f>'Procesos - Proyecto Anterior'!F43+7</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="130">
+        <f>'Procesos - Proyecto Anterior'!F43</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="130">
+        <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"X")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="130">
+        <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"")-6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="130">
+        <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="130">
+        <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,14 +2394,14 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
         <v>0.83552631578947367</v>
@@ -2137,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I26"/>
   <sheetViews>
@@ -2529,12 +2812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H43"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,11 +2827,21 @@
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="110" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="110" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="110"/>
+      <c r="H2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="108">
         <v>1</v>
       </c>
@@ -2557,11 +2850,14 @@
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -2570,11 +2866,14 @@
         <v>99</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1.2</v>
@@ -2583,11 +2882,14 @@
         <v>98</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1.3</v>
@@ -2596,11 +2898,14 @@
         <v>97</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>1.4</v>
@@ -2609,11 +2914,14 @@
         <v>96</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1.5</v>
@@ -2622,11 +2930,14 @@
         <v>95</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1.6</v>
@@ -2635,14 +2946,21 @@
         <v>94</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="108">
+      <c r="F9" s="112">
         <v>6</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -2651,11 +2969,14 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="H11" s="111" t="s">
+      <c r="H11" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9">
         <v>2.1</v>
@@ -2664,11 +2985,14 @@
         <v>92</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9">
         <v>2.2000000000000002</v>
@@ -2677,11 +3001,14 @@
         <v>91</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -2690,11 +3017,14 @@
       <c r="E14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="111" t="s">
+      <c r="H14" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
         <v>2.2999999999999998</v>
@@ -2703,11 +3033,14 @@
         <v>88</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2.4</v>
@@ -2716,14 +3049,21 @@
         <v>87</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="6">
+      <c r="F16" s="113">
         <v>5</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="105">
         <v>3</v>
       </c>
@@ -2732,11 +3072,14 @@
       </c>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
-      <c r="H18" s="111" t="s">
+      <c r="H18" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="106">
         <v>3.1</v>
@@ -2745,11 +3088,14 @@
         <v>85</v>
       </c>
       <c r="E19" s="106"/>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="106">
         <v>3.2</v>
@@ -2758,11 +3104,14 @@
         <v>84</v>
       </c>
       <c r="E20" s="106"/>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
@@ -2771,11 +3120,14 @@
       <c r="E21" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="106">
         <v>3.3</v>
@@ -2784,14 +3136,21 @@
         <v>81</v>
       </c>
       <c r="E22" s="106"/>
-      <c r="F22" s="105">
+      <c r="F22" s="114">
         <v>4</v>
       </c>
-      <c r="H22" s="111" t="s">
+      <c r="H22" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>4</v>
       </c>
@@ -2800,11 +3159,14 @@
       </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="103">
         <v>4.0999999999999996</v>
@@ -2813,11 +3175,12 @@
         <v>79</v>
       </c>
       <c r="E25" s="103"/>
-      <c r="H25" s="111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="118"/>
+      <c r="I25" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="103">
         <v>4.2</v>
@@ -2826,11 +3189,14 @@
         <v>78</v>
       </c>
       <c r="E26" s="103"/>
-      <c r="H26" s="111" t="s">
+      <c r="H26" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="103">
         <v>4.3</v>
@@ -2839,11 +3205,14 @@
         <v>77</v>
       </c>
       <c r="E27" s="103"/>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="103"/>
       <c r="C28" s="103">
         <v>4.4000000000000004</v>
@@ -2852,11 +3221,14 @@
         <v>76</v>
       </c>
       <c r="E28" s="103"/>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
       <c r="C29" s="103">
         <v>4.5</v>
@@ -2865,14 +3237,21 @@
         <v>75</v>
       </c>
       <c r="E29" s="103"/>
-      <c r="F29" s="34">
+      <c r="F29" s="115">
         <v>5</v>
       </c>
-      <c r="H29" s="111" t="s">
+      <c r="H29" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="96">
         <v>5</v>
       </c>
@@ -2881,11 +3260,14 @@
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
-      <c r="H31" s="111" t="s">
+      <c r="H31" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="101">
         <v>5.0999999999999996</v>
@@ -2894,11 +3276,14 @@
         <v>73</v>
       </c>
       <c r="E32" s="101"/>
-      <c r="H32" s="111" t="s">
+      <c r="H32" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="101"/>
       <c r="C33" s="101">
         <v>5.2</v>
@@ -2907,11 +3292,14 @@
         <v>72</v>
       </c>
       <c r="E33" s="101"/>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="101">
         <v>5.3</v>
@@ -2920,14 +3308,21 @@
         <v>71</v>
       </c>
       <c r="E34" s="101"/>
-      <c r="F34" s="96">
+      <c r="F34" s="30">
         <v>3</v>
       </c>
-      <c r="H34" s="111" t="s">
+      <c r="H34" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>6</v>
       </c>
@@ -2936,11 +3331,14 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="H36" s="111" t="s">
+      <c r="H36" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="100"/>
       <c r="C37" s="100">
         <v>6.1</v>
@@ -2949,11 +3347,14 @@
         <v>69</v>
       </c>
       <c r="E37" s="100"/>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="100"/>
       <c r="C38" s="100">
         <v>6.2</v>
@@ -2962,14 +3363,21 @@
         <v>68</v>
       </c>
       <c r="E38" s="100"/>
-      <c r="F38" s="18">
+      <c r="F38" s="116">
         <v>2</v>
       </c>
-      <c r="H38" s="111" t="s">
+      <c r="H38" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="98">
         <v>7</v>
       </c>
@@ -2978,11 +3386,14 @@
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
-      <c r="H40" s="111" t="s">
+      <c r="H40" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="28">
         <v>7.1</v>
@@ -2991,17 +3402,32 @@
         <v>66</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="98">
-        <v>1</v>
-      </c>
-      <c r="H41" s="111" t="s">
+      <c r="F41" s="117">
+        <v>1</v>
+      </c>
+      <c r="H41" s="118" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="1">
+      <c r="I41" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="110">
         <f xml:space="preserve"> SUM(F9:F42)</f>
         <v>26</v>
+      </c>
+      <c r="H43" s="30">
+        <f>COUNTIF(H3:H41,"X")</f>
+        <v>32</v>
+      </c>
+      <c r="I43" s="120">
+        <f>COUNTIF(I3:I41,"Si")</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
